--- a/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>84352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67213</v>
+        <v>68875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102178</v>
+        <v>101021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1118214394320272</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08910025288592807</v>
+        <v>0.09130376674456887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1354517903403136</v>
+        <v>0.1339185775327671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -763,19 +763,19 @@
         <v>29491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20118</v>
+        <v>19550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43884</v>
+        <v>39101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02964883514127455</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0202259400441513</v>
+        <v>0.01965489872400364</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04411932216761322</v>
+        <v>0.03931078225882131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -784,19 +784,19 @@
         <v>113843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95214</v>
+        <v>94531</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135038</v>
+        <v>136836</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06508988313160255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05443907519465015</v>
+        <v>0.05404809842387596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07720811318145086</v>
+        <v>0.07823616597645716</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>321868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296248</v>
+        <v>294689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>347976</v>
+        <v>347063</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.426684097401788</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3927207461178472</v>
+        <v>0.3906542442449886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.461294961690065</v>
+        <v>0.4600838950554416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>361</v>
@@ -834,19 +834,19 @@
         <v>391781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>362250</v>
+        <v>360218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>423355</v>
+        <v>427485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3938847986167337</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3641951656929652</v>
+        <v>0.3621518445594925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4256275667656963</v>
+        <v>0.4297795707448971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>684</v>
@@ -855,19 +855,19 @@
         <v>713649</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>677297</v>
+        <v>671981</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>757154</v>
+        <v>754231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4080311376834272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3872465743474839</v>
+        <v>0.3842073268932235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4329053062785585</v>
+        <v>0.4312340979482723</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>348127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>322663</v>
+        <v>321789</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>373620</v>
+        <v>376016</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4614944631661848</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4277381868548225</v>
+        <v>0.4265796998720878</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4952889857670392</v>
+        <v>0.4984655128516397</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>501</v>
@@ -905,19 +905,19 @@
         <v>573388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>541773</v>
+        <v>540911</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>602806</v>
+        <v>605817</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5764663662419918</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5446820090978032</v>
+        <v>0.5438148165802079</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6060426069214103</v>
+        <v>0.6090697443721503</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>859</v>
@@ -926,19 +926,19 @@
         <v>921515</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>876779</v>
+        <v>878898</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>959210</v>
+        <v>960582</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5268789791849703</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5013011750879203</v>
+        <v>0.502512808933726</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5484313473935395</v>
+        <v>0.5492153730097024</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>302894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273798</v>
+        <v>272618</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340247</v>
+        <v>334741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1458754877165978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1318628702584482</v>
+        <v>0.1312945946507304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1638649360232134</v>
+        <v>0.1612132638053343</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -1051,19 +1051,19 @@
         <v>128610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109219</v>
+        <v>107244</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>153297</v>
+        <v>151001</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06468320276757369</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05493095040649474</v>
+        <v>0.05393768488282852</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0770995721319828</v>
+        <v>0.07594481357976092</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>413</v>
@@ -1072,19 +1072,19 @@
         <v>431503</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>394314</v>
+        <v>391694</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>472389</v>
+        <v>472076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1061590953707151</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09700979726543663</v>
+        <v>0.09636506444932498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1162177456706863</v>
+        <v>0.1161409591745015</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>1079279</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1034311</v>
+        <v>1031336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1128421</v>
+        <v>1124480</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5197876175737982</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4981306807301492</v>
+        <v>0.4966978885280484</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5434545211137114</v>
+        <v>0.5415567634081179</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>955</v>
@@ -1122,19 +1122,19 @@
         <v>987939</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>935357</v>
+        <v>942144</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1034884</v>
+        <v>1031991</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4968764720793064</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4704305594231183</v>
+        <v>0.4738440716011003</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5204866771518266</v>
+        <v>0.519032051975774</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1971</v>
@@ -1143,19 +1143,19 @@
         <v>2067219</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2003145</v>
+        <v>2000026</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2128434</v>
+        <v>2133614</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.508580296039195</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4928166718235065</v>
+        <v>0.4920494691384075</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5236406407670394</v>
+        <v>0.5249149240374861</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>694212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>645564</v>
+        <v>652063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>737726</v>
+        <v>739356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3343368947096039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3109074890830869</v>
+        <v>0.314037406585729</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3552932426599292</v>
+        <v>0.3560785970366203</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>827</v>
@@ -1193,19 +1193,19 @@
         <v>871751</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>824171</v>
+        <v>829087</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>921145</v>
+        <v>917440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4384403251531199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4145101750963511</v>
+        <v>0.4169828879369441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4632825229175818</v>
+        <v>0.4614193403756979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1476</v>
@@ -1214,19 +1214,19 @@
         <v>1565963</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1499565</v>
+        <v>1498858</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1626394</v>
+        <v>1628123</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.38526060859009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3689252320060233</v>
+        <v>0.3687513042975399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4001280287237123</v>
+        <v>0.4005531896819326</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>85383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>70518</v>
+        <v>68432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104728</v>
+        <v>104811</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1561264323141593</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1289437761925641</v>
+        <v>0.1251297313519563</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.191498663380287</v>
+        <v>0.1916503626355724</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1339,19 +1339,19 @@
         <v>35847</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25705</v>
+        <v>25379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49431</v>
+        <v>49574</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06527921470385606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04681011593890491</v>
+        <v>0.04621647144242723</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09001563754425246</v>
+        <v>0.09027492949944281</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>111</v>
@@ -1360,19 +1360,19 @@
         <v>121231</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100897</v>
+        <v>101084</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>144428</v>
+        <v>143295</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1106094030372185</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09205673117804596</v>
+        <v>0.09222787588597813</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1317742093656905</v>
+        <v>0.130740241198164</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>297021</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>272412</v>
+        <v>270233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>322653</v>
+        <v>321949</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5431123213446069</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4981147568129553</v>
+        <v>0.4941300192755128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5899822879923057</v>
+        <v>0.5886954449269138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>310</v>
@@ -1410,19 +1410,19 @@
         <v>325063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>302206</v>
+        <v>300838</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>346480</v>
+        <v>348419</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5919485561528958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5503251845827511</v>
+        <v>0.5478354740720573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6309501912969575</v>
+        <v>0.6344815501141793</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>579</v>
@@ -1431,19 +1431,19 @@
         <v>622084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>588576</v>
+        <v>589552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>654966</v>
+        <v>657543</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5675806582735338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5370086257959333</v>
+        <v>0.5378992511622112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5975823782908914</v>
+        <v>0.5999332849200122</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>164482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143164</v>
+        <v>143103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>186659</v>
+        <v>188097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3007612463412339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2617800155437355</v>
+        <v>0.2616692468115727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3413117908792523</v>
+        <v>0.3439422666185863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>183</v>
@@ -1481,19 +1481,19 @@
         <v>188230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166560</v>
+        <v>166058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>211641</v>
+        <v>211337</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3427722291432482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3033102548859923</v>
+        <v>0.3023956925591243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3854037825717956</v>
+        <v>0.3848515659674736</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>337</v>
@@ -1502,19 +1502,19 @@
         <v>352712</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>319558</v>
+        <v>321045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>383656</v>
+        <v>385160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3218099386892478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2915602182368168</v>
+        <v>0.2929171148562619</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3500421345111129</v>
+        <v>0.3514149709919317</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>472629</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>431031</v>
+        <v>434225</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>515370</v>
+        <v>515851</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1399297407737214</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1276138332865754</v>
+        <v>0.1285593896969547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1525838872726661</v>
+        <v>0.152726372408647</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>189</v>
@@ -1627,19 +1627,19 @@
         <v>193948</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>169409</v>
+        <v>166810</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224225</v>
+        <v>224458</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05490998261173342</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04796275523206555</v>
+        <v>0.04722678841932622</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06348194187752458</v>
+        <v>0.06354801355365945</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>635</v>
@@ -1648,19 +1648,19 @@
         <v>666577</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>617706</v>
+        <v>615781</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>720290</v>
+        <v>719033</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09646945560393609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08939667709420888</v>
+        <v>0.0891181271395383</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1042430650739516</v>
+        <v>0.1040610833820099</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>1698168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1642336</v>
+        <v>1633204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1755784</v>
+        <v>1751813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5027707781088139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4862408705971657</v>
+        <v>0.4835373551124258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5198291409934069</v>
+        <v>0.5186532812618645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1626</v>
@@ -1698,19 +1698,19 @@
         <v>1704784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1641964</v>
+        <v>1642246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1772199</v>
+        <v>1764155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4826543977986271</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4648691537702735</v>
+        <v>0.4649488556603266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5017409922267116</v>
+        <v>0.4994635801137445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3234</v>
@@ -1719,19 +1719,19 @@
         <v>3402951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3316966</v>
+        <v>3318618</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3485120</v>
+        <v>3487570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4924877139862502</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4800436547199717</v>
+        <v>0.4802826883365681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5043795559332743</v>
+        <v>0.5047341039337896</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>1206821</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1155643</v>
+        <v>1152783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1262159</v>
+        <v>1265823</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3572994811174647</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.342147474017208</v>
+        <v>0.341300679596432</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3736831742089917</v>
+        <v>0.374768048813203</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1511</v>
@@ -1769,19 +1769,19 @@
         <v>1633369</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1567458</v>
+        <v>1575907</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1693967</v>
+        <v>1697591</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4624356195896395</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4437751781315103</v>
+        <v>0.4461670863773528</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4795919193248067</v>
+        <v>0.4806179375210443</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2672</v>
@@ -1790,19 +1790,19 @@
         <v>2840190</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2755521</v>
+        <v>2755243</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2921377</v>
+        <v>2926135</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4110428304098137</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.398789282086066</v>
+        <v>0.3987489151896517</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4227924861752968</v>
+        <v>0.4234810932306321</v>
       </c>
     </row>
     <row r="19">
@@ -2133,19 +2133,19 @@
         <v>80623</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65837</v>
+        <v>64962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96937</v>
+        <v>98048</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1393592851339616</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1138002403988463</v>
+        <v>0.1122875440052264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1675579196475687</v>
+        <v>0.169478001297765</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -2154,19 +2154,19 @@
         <v>70026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57881</v>
+        <v>58060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82219</v>
+        <v>83124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08518542583993083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07041202680867632</v>
+        <v>0.07062908980056783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1000187425814585</v>
+        <v>0.101118952026051</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>204</v>
@@ -2175,19 +2175,19 @@
         <v>150649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129403</v>
+        <v>131820</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>171579</v>
+        <v>173544</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1075629092705507</v>
+        <v>0.1075629092705506</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09239311334926385</v>
+        <v>0.09411875768834937</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.122506489907212</v>
+        <v>0.1239096278018327</v>
       </c>
     </row>
     <row r="5">
@@ -2204,19 +2204,19 @@
         <v>241152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>218873</v>
+        <v>218969</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264634</v>
+        <v>266102</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4168364148126358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.37832616785701</v>
+        <v>0.3784926682947433</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4574256595620088</v>
+        <v>0.4599639274438937</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>478</v>
@@ -2225,19 +2225,19 @@
         <v>280891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>260004</v>
+        <v>258698</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301756</v>
+        <v>301668</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3417004189374848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3162921221617683</v>
+        <v>0.3147032337357646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3670832969224766</v>
+        <v>0.3669761460400532</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>771</v>
@@ -2246,19 +2246,19 @@
         <v>522043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>489662</v>
+        <v>491202</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>552581</v>
+        <v>553257</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.372736688545188</v>
+        <v>0.3727366885451878</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3496172340198992</v>
+        <v>0.3507163583044066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3945410894715933</v>
+        <v>0.3950236328290523</v>
       </c>
     </row>
     <row r="6">
@@ -2275,19 +2275,19 @@
         <v>256754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>233072</v>
+        <v>234869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>279479</v>
+        <v>279249</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4438043000534027</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4028694201453298</v>
+        <v>0.4059767448789043</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4830849827294917</v>
+        <v>0.4826885168510282</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>832</v>
@@ -2296,19 +2296,19 @@
         <v>471122</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>450653</v>
+        <v>450471</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>491678</v>
+        <v>496296</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5731141552225842</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5482141258434752</v>
+        <v>0.5479930032562669</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5981207499249985</v>
+        <v>0.6037390322780237</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1143</v>
@@ -2317,19 +2317,19 @@
         <v>727875</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>696746</v>
+        <v>696295</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>760533</v>
+        <v>761390</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5197004021842615</v>
+        <v>0.5197004021842614</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4974740726135619</v>
+        <v>0.4971520253213401</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5430178084199763</v>
+        <v>0.5436301358069511</v>
       </c>
     </row>
     <row r="7">
@@ -2421,19 +2421,19 @@
         <v>632586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>580487</v>
+        <v>585367</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>685419</v>
+        <v>684948</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2835987391093563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2602419772353753</v>
+        <v>0.2624298022024092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3072847925300082</v>
+        <v>0.3070734346238052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>585</v>
@@ -2442,19 +2442,19 @@
         <v>407119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>373399</v>
+        <v>376466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>440713</v>
+        <v>444011</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1874921979219122</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1719627480282804</v>
+        <v>0.1733753369862505</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2029632475742207</v>
+        <v>0.2044821729380747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1122</v>
@@ -2463,19 +2463,19 @@
         <v>1039705</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>979542</v>
+        <v>979968</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1103106</v>
+        <v>1100477</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2361914343765242</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2225241898108088</v>
+        <v>0.2226208548308874</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2505943899457202</v>
+        <v>0.2499971257024522</v>
       </c>
     </row>
     <row r="9">
@@ -2492,19 +2492,19 @@
         <v>1009383</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>953356</v>
+        <v>955018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1062482</v>
+        <v>1058304</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4525232227558875</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4274055110804025</v>
+        <v>0.4281506913364986</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4763286391407442</v>
+        <v>0.474455387346871</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1432</v>
@@ -2513,19 +2513,19 @@
         <v>1061352</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1016003</v>
+        <v>1018740</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1106101</v>
+        <v>1105932</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.4887885963703158</v>
+        <v>0.4887885963703157</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4679041352676752</v>
+        <v>0.4691642815997568</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5093970586521096</v>
+        <v>0.5093192861827628</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2355</v>
@@ -2534,19 +2534,19 @@
         <v>2070735</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2001133</v>
+        <v>2003172</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2146742</v>
+        <v>2140869</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4704121572336775</v>
+        <v>0.4704121572336774</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4546006487232753</v>
+        <v>0.4550636647832599</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4876786941639696</v>
+        <v>0.4863445953122557</v>
       </c>
     </row>
     <row r="10">
@@ -2563,19 +2563,19 @@
         <v>588597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>543424</v>
+        <v>535548</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>639135</v>
+        <v>636493</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2638780381347563</v>
+        <v>0.2638780381347562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2436261590430245</v>
+        <v>0.2400950012140032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2865349883635213</v>
+        <v>0.2853505738739162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>904</v>
@@ -2584,19 +2584,19 @@
         <v>702921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>663045</v>
+        <v>657732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>752252</v>
+        <v>744891</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3237192057077721</v>
+        <v>0.323719205707772</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3053547870148531</v>
+        <v>0.3029081112035639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3464374674591171</v>
+        <v>0.3430478849001684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1436</v>
@@ -2605,19 +2605,19 @@
         <v>1291519</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1231385</v>
+        <v>1232623</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1361426</v>
+        <v>1358755</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2933964083897983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2797355890544382</v>
+        <v>0.2800170295625489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3092773226251929</v>
+        <v>0.3086704511818963</v>
       </c>
     </row>
     <row r="11">
@@ -2709,19 +2709,19 @@
         <v>239373</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>211137</v>
+        <v>211824</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>266012</v>
+        <v>268394</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3363927551805124</v>
+        <v>0.3363927551805123</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2967128278285454</v>
+        <v>0.2976785980264618</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3738290371346102</v>
+        <v>0.3771772873641595</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>262</v>
@@ -2730,19 +2730,19 @@
         <v>179110</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>158604</v>
+        <v>160626</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>201787</v>
+        <v>201232</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2437275970061428</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2158234448650792</v>
+        <v>0.2185753902576377</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2745854800799283</v>
+        <v>0.2738305044359075</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>488</v>
@@ -2751,19 +2751,19 @@
         <v>418483</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>383665</v>
+        <v>386828</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>454306</v>
+        <v>455752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2893141519211886</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2652433440978861</v>
+        <v>0.2674300607779561</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3140803814017204</v>
+        <v>0.3150803106185502</v>
       </c>
     </row>
     <row r="13">
@@ -2780,19 +2780,19 @@
         <v>348805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>319628</v>
+        <v>322291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>378564</v>
+        <v>376646</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4901787795997025</v>
+        <v>0.4901787795997023</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4491756549636087</v>
+        <v>0.452919138851774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5319992443139903</v>
+        <v>0.5293043971270869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>515</v>
@@ -2801,19 +2801,19 @@
         <v>383296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>358175</v>
+        <v>359164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>407650</v>
+        <v>407239</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5215780719739515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4873938853467498</v>
+        <v>0.4887399252629738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5547187156609152</v>
+        <v>0.554159677558883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>853</v>
@@ -2822,19 +2822,19 @@
         <v>732101</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>695538</v>
+        <v>694338</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>772644</v>
+        <v>771608</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5061312136907248</v>
+        <v>0.5061312136907246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4808539851543174</v>
+        <v>0.4800244982816161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5341603803459811</v>
+        <v>0.5334442564010068</v>
       </c>
     </row>
     <row r="14">
@@ -2851,19 +2851,19 @@
         <v>123409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102649</v>
+        <v>102798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145934</v>
+        <v>145564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1734284652197852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1442531563830254</v>
+        <v>0.1444629857891178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2050818988804931</v>
+        <v>0.204562897167312</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>227</v>
@@ -2872,19 +2872,19 @@
         <v>172471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150766</v>
+        <v>152483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193983</v>
+        <v>194654</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2346943310199056</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2051586906857673</v>
+        <v>0.2074943474203288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2639663636167994</v>
+        <v>0.2648794660583529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>344</v>
@@ -2893,19 +2893,19 @@
         <v>295881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>266456</v>
+        <v>268363</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325873</v>
+        <v>325577</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2045546343880867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1842119515265169</v>
+        <v>0.1855303521033532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2252892771810718</v>
+        <v>0.2250845474275584</v>
       </c>
     </row>
     <row r="15">
@@ -2997,19 +2997,19 @@
         <v>952582</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>886734</v>
+        <v>891043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1009889</v>
+        <v>1008192</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2705673948964303</v>
+        <v>0.2705673948964304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2518641267361643</v>
+        <v>0.2530881308074612</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.28684454762967</v>
+        <v>0.2863625364555581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>964</v>
@@ -3018,19 +3018,19 @@
         <v>656255</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>617285</v>
+        <v>612085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>701376</v>
+        <v>697348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1760194517610352</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1655672037541143</v>
+        <v>0.1641724798798388</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1881217203699813</v>
+        <v>0.1870413780125326</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1814</v>
@@ -3039,19 +3039,19 @@
         <v>1608837</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1546542</v>
+        <v>1531343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1685599</v>
+        <v>1685532</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2219394093663301</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2133458574021937</v>
+        <v>0.2112491758178091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2325288295673406</v>
+        <v>0.2325195689949192</v>
       </c>
     </row>
     <row r="17">
@@ -3068,19 +3068,19 @@
         <v>1599340</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1533978</v>
+        <v>1536698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1664070</v>
+        <v>1665887</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4542698550129355</v>
+        <v>0.4542698550129356</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4357045845799384</v>
+        <v>0.4364772076634115</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4726555001997624</v>
+        <v>0.4731714668807502</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2425</v>
@@ -3089,19 +3089,19 @@
         <v>1725538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1671037</v>
+        <v>1674705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1783760</v>
+        <v>1781923</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4628208304255921</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4482025257831452</v>
+        <v>0.4491864254545325</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4784370437632842</v>
+        <v>0.4779443630182101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3979</v>
@@ -3110,19 +3110,19 @@
         <v>3324878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3234845</v>
+        <v>3240803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3408591</v>
+        <v>3408125</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4586678005931947</v>
+        <v>0.4586678005931948</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4462476468603533</v>
+        <v>0.4470695434521936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4702159239863047</v>
+        <v>0.4701517291208193</v>
       </c>
     </row>
     <row r="18">
@@ -3139,19 +3139,19 @@
         <v>968761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>913153</v>
+        <v>908709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1027493</v>
+        <v>1027348</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2751627500906341</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2593682006506995</v>
+        <v>0.2581057529268004</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.291844764093961</v>
+        <v>0.2918035773547837</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1963</v>
@@ -3160,19 +3160,19 @@
         <v>1346514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1294511</v>
+        <v>1292625</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1405831</v>
+        <v>1395215</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3611597178133726</v>
+        <v>0.3611597178133727</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3472115945301165</v>
+        <v>0.3467055872658942</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3770696141567452</v>
+        <v>0.3742220234098748</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2923</v>
@@ -3181,19 +3181,19 @@
         <v>2315275</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2232629</v>
+        <v>2235810</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2392540</v>
+        <v>2385823</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3193927900404752</v>
+        <v>0.3193927900404753</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.307991745493959</v>
+        <v>0.3084305640331896</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3300514422101326</v>
+        <v>0.3291249332549308</v>
       </c>
     </row>
     <row r="19">
